--- a/data/trans_camb/P3A_R1-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R1-Provincia-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-6,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,81</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,3</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,48; 17,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,12; 18,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 12,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,11; -0,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,76; 5,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,44; 17,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 6,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 9,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,51; 13,41</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,52%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,22; 102,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,53; 109,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,1; 75,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,5; -2,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,74; 48,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,77; 154,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,03; 45,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 65,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,46; 89,91</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,41</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,78</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,19; 4,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 9,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,53; 21,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,28; 3,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 6,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,44; 21,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 2,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 6,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,78; 19,73</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,32%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,11; 20,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,9; 41,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,65; 96,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,31; 30,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,51; 50,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,72; 184,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,07; 13,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,97; 35,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,66; 111,48</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,75</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,41</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,68</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,96</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,53</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 13,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,12; 28,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,93; 21,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 7,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,2; 19,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,3; 25,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 8,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,78; 22,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,53; 21,47</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>185,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>266,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>134,16%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,72; 86,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,0; 190,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,25; 139,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,17; 134,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>92,21; 351,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>146,63; 460,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,69; 80,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>89,92; 204,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>88,47; 191,59</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,85</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,43; 15,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,77; 18,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,54; 19,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,47; -0,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,42; -0,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,29; 1,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 5,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 6,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,8; 6,88</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,22%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,97%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,71%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,59%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,64%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,48%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,8%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,65; 90,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,34; 107,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,74; 110,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,4; -2,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,45; -0,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,49; 8,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,89; 30,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,35; 36,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,77; 39,05</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,57</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,62</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,76</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,53; 6,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,62; 23,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,41; 9,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 10,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,86; 14,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,54; 14,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,01; 6,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,4; 17,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; 9,81</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,13%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,19%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,78%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,4%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,97%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,32%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,44%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,7; 40,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,57; 143,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,72; 61,68</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,54; 134,33</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,82; 187,05</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,45; 183,86</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,1; 46,31</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,16; 134,46</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,19; 73,27</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,51</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,66</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,23</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,0</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,52</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,74; 20,67</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,15; 15,42</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,38; 29,2</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 12,02</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,83; 3,84</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,66; 30,36</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,92; 13,94</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 7,38</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,95; 27,79</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,1%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,3%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>128,84%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,99%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,27%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>187,39%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,1%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>154,41%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,88; 143,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,52; 105,3</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,42; 210,67</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,28; 117,57</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,23; 39,05</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>102,98; 305,02</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,27; 106,11</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,26; 57,68</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>103,09; 215,76</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,5</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,05</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,3</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 9,15</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 10,54</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 10,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,6; 11,49</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,6; 16,52</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 14,63</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,36; 8,78</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,59; 12,1</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; 9,91</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,65%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>118,39%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,84%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,15%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,42%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,25%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,2; 43,87</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 51,28</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,71; 48,59</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,33; 127,79</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>70,56; 192,32</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,5; 153,07</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,22; 57,71</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,59; 78,9</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,35; 61,09</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,34</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,42</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,13</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,23</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,73</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,72</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,04; 15,9</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,21; 22,13</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,25; -0,29</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,23; 10,89</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,67; 15,78</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,96; -2,14</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,57; 12,11</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,86; 17,59</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,57; -1,87</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,95%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,67%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,98%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,47%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>127,99%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,98%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,46%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,57%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,8%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,28; 94,47</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,86; 138,75</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,75; -1,5</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,51; 133,24</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>76,59; 195,32</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,95; -25,77</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,17; 96,36</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>77,14; 137,59</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,64; -14,97</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,5</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,82</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,87</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,29; 8,86</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,26; 13,72</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 8,9</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,18; 4,74</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,87; 8,4</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,94; 9,87</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,37; 6,16</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,44; 10,39</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,36; 9,03</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,99%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,89%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,83%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,25%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,62%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,95%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,46; 44,61</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,03; 68,57</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 43,96</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,34; 42,64</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,28; 75,97</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,08; 86,96</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,96; 39,27</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,92; 67,32</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,17; 57,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P3A_R1-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R1-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 17,4</t>
+          <t>1,69; 16,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 18,43</t>
+          <t>3,23; 18,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 12,37</t>
+          <t>-2,1; 12,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,11; -0,42</t>
+          <t>-11,88; -1,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 5,28</t>
+          <t>-7,26; 4,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,44; 17,67</t>
+          <t>5,41; 18,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 6,72</t>
+          <t>-2,82; 6,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 9,71</t>
+          <t>0,21; 9,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,51; 13,41</t>
+          <t>3,02; 12,77</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,22; 102,92</t>
+          <t>3,4; 97,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,53; 109,68</t>
+          <t>14,8; 113,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 75,12</t>
+          <t>-10,5; 75,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-65,5; -2,67</t>
+          <t>-66,07; -6,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,74; 48,6</t>
+          <t>-40,61; 43,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,77; 154,17</t>
+          <t>29,19; 166,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 45,07</t>
+          <t>-14,93; 43,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 65,45</t>
+          <t>0,22; 65,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,46; 89,91</t>
+          <t>14,43; 85,94</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 4,59</t>
+          <t>-6,96; 4,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 9,36</t>
+          <t>-2,11; 9,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,53; 21,67</t>
+          <t>8,11; 21,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 3,56</t>
+          <t>-5,3; 3,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 6,05</t>
+          <t>-2,73; 6,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,44; 21,25</t>
+          <t>11,76; 20,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 2,46</t>
+          <t>-4,63; 2,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 6,35</t>
+          <t>-0,84; 6,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,78; 19,73</t>
+          <t>11,36; 19,78</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,11; 20,42</t>
+          <t>-25,24; 20,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 41,99</t>
+          <t>-7,83; 44,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,65; 96,07</t>
+          <t>28,32; 92,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,31; 30,45</t>
+          <t>-32,67; 26,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,51; 50,31</t>
+          <t>-17,24; 53,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,72; 184,98</t>
+          <t>71,21; 181,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,07; 13,82</t>
+          <t>-21,09; 15,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 35,78</t>
+          <t>-4,65; 36,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>53,66; 111,48</t>
+          <t>52,38; 110,41</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 13,14</t>
+          <t>-0,2; 13,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,12; 28,35</t>
+          <t>14,55; 29,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,93; 21,77</t>
+          <t>7,33; 20,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 7,58</t>
+          <t>-2,05; 7,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,2; 19,63</t>
+          <t>9,0; 19,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,3; 25,3</t>
+          <t>15,97; 25,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 8,98</t>
+          <t>0,58; 8,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,78; 22,66</t>
+          <t>13,62; 22,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,53; 21,47</t>
+          <t>12,97; 21,69</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,72; 86,42</t>
+          <t>-2,75; 88,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>63,0; 190,65</t>
+          <t>64,05; 189,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,25; 139,47</t>
+          <t>32,03; 135,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 134,53</t>
+          <t>-21,18; 128,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,21; 351,44</t>
+          <t>84,88; 331,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>146,63; 460,61</t>
+          <t>156,22; 457,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,69; 80,87</t>
+          <t>3,98; 79,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>89,92; 204,92</t>
+          <t>89,27; 208,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>88,47; 191,59</t>
+          <t>82,96; 198,31</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,43; 15,95</t>
+          <t>2,07; 15,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,77; 18,42</t>
+          <t>4,7; 17,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,54; 19,68</t>
+          <t>4,35; 20,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,47; -0,42</t>
+          <t>-10,72; -0,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,42; -0,22</t>
+          <t>-10,95; -0,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 1,57</t>
+          <t>-11,72; 1,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 5,38</t>
+          <t>-2,64; 5,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 6,77</t>
+          <t>-1,48; 7,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 6,88</t>
+          <t>-4,96; 7,71</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,65; 90,46</t>
+          <t>8,17; 89,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,34; 107,38</t>
+          <t>18,73; 100,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,74; 110,2</t>
+          <t>17,8; 115,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-53,4; -2,75</t>
+          <t>-52,85; -5,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-51,45; -0,36</t>
+          <t>-50,18; -2,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,49; 8,58</t>
+          <t>-56,03; 9,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 30,89</t>
+          <t>-12,28; 33,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 36,87</t>
+          <t>-6,92; 41,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,77; 39,05</t>
+          <t>-22,77; 42,04</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 6,7</t>
+          <t>-10,16; 6,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,62; 23,69</t>
+          <t>7,03; 24,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 9,93</t>
+          <t>-4,69; 10,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 10,41</t>
+          <t>-2,7; 10,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,86; 14,21</t>
+          <t>1,31; 14,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 14,78</t>
+          <t>-2,16; 13,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 6,14</t>
+          <t>-3,69; 6,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,4; 17,71</t>
+          <t>5,62; 17,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 9,81</t>
+          <t>-3,0; 9,34</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-38,7; 40,62</t>
+          <t>-39,89; 38,97</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>24,57; 143,52</t>
+          <t>29,3; 163,87</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 61,68</t>
+          <t>-19,15; 63,74</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 134,33</t>
+          <t>-19,76; 139,15</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>4,82; 187,05</t>
+          <t>7,29; 201,65</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 183,86</t>
+          <t>-14,31; 171,1</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-22,1; 46,31</t>
+          <t>-19,88; 49,65</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>32,16; 134,46</t>
+          <t>30,41; 138,0</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 73,27</t>
+          <t>-14,46; 69,33</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5,74; 20,67</t>
+          <t>5,46; 19,94</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,15; 15,42</t>
+          <t>0,82; 15,04</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>15,38; 29,2</t>
+          <t>15,25; 29,27</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 12,02</t>
+          <t>-0,56; 11,36</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 3,84</t>
+          <t>-7,57; 4,23</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>17,66; 30,36</t>
+          <t>17,38; 29,9</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,92; 13,94</t>
+          <t>4,4; 14,08</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 7,38</t>
+          <t>-1,41; 7,2</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>18,95; 27,79</t>
+          <t>18,7; 28,51</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>26,88; 143,0</t>
+          <t>23,71; 135,38</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>4,52; 105,3</t>
+          <t>3,71; 103,67</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>73,42; 210,67</t>
+          <t>70,95; 212,14</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 117,57</t>
+          <t>-5,05; 109,17</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-46,23; 39,05</t>
+          <t>-46,48; 41,16</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>102,98; 305,02</t>
+          <t>102,71; 301,01</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>21,27; 106,11</t>
+          <t>25,31; 106,28</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 57,68</t>
+          <t>-8,02; 55,27</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>103,09; 215,76</t>
+          <t>102,69; 219,12</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 9,15</t>
+          <t>-1,26; 8,44</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 10,54</t>
+          <t>0,13; 10,32</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 10,0</t>
+          <t>-0,62; 9,54</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,6; 11,49</t>
+          <t>3,38; 11,39</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>8,6; 16,52</t>
+          <t>8,71; 16,66</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 14,63</t>
+          <t>-2,78; 14,46</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,78</t>
+          <t>2,49; 8,79</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>5,59; 12,1</t>
+          <t>5,66; 12,1</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 9,91</t>
+          <t>-3,57; 9,94</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 43,87</t>
+          <t>-4,86; 39,84</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 51,28</t>
+          <t>0,26; 48,54</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 48,59</t>
+          <t>-2,58; 46,08</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>29,33; 127,79</t>
+          <t>25,32; 124,81</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>70,56; 192,32</t>
+          <t>67,13; 185,35</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 153,07</t>
+          <t>-22,24; 145,42</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>13,22; 57,71</t>
+          <t>13,79; 56,64</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>30,59; 78,9</t>
+          <t>29,98; 77,58</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 61,09</t>
+          <t>-17,55; 61,41</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>7,04; 15,9</t>
+          <t>7,15; 16,11</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>13,21; 22,13</t>
+          <t>12,7; 21,74</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-14,25; -0,29</t>
+          <t>-15,05; -0,23</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>4,23; 10,89</t>
+          <t>3,87; 11,0</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>8,67; 15,78</t>
+          <t>8,39; 15,58</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-6,96; -2,14</t>
+          <t>-7,04; -2,34</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>6,57; 12,11</t>
+          <t>6,78; 12,33</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>11,86; 17,59</t>
+          <t>11,89; 17,63</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-8,57; -1,87</t>
+          <t>-8,54; -1,92</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>32,28; 94,47</t>
+          <t>34,41; 99,06</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>64,86; 138,75</t>
+          <t>60,73; 133,31</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-68,75; -1,5</t>
+          <t>-73,06; -0,92</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>37,51; 133,24</t>
+          <t>31,64; 132,55</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>76,59; 195,32</t>
+          <t>74,46; 191,26</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-62,95; -25,77</t>
+          <t>-62,55; -26,7</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>44,17; 96,36</t>
+          <t>44,23; 96,87</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>77,14; 137,59</t>
+          <t>78,02; 140,59</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-59,64; -14,97</t>
+          <t>-57,36; -14,96</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>4,29; 8,86</t>
+          <t>4,33; 8,58</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>9,26; 13,72</t>
+          <t>9,12; 13,72</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 8,9</t>
+          <t>-0,42; 9,15</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,74</t>
+          <t>1,32; 4,68</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>4,87; 8,4</t>
+          <t>4,81; 8,33</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>3,94; 9,87</t>
+          <t>4,16; 9,93</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,16</t>
+          <t>3,27; 6,1</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>7,44; 10,39</t>
+          <t>7,6; 10,4</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>3,36; 9,03</t>
+          <t>3,8; 8,84</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>19,46; 44,61</t>
+          <t>20,02; 43,51</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>42,03; 68,57</t>
+          <t>41,62; 69,44</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 43,96</t>
+          <t>-1,05; 45,14</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>9,34; 42,64</t>
+          <t>10,48; 41,85</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>38,28; 75,97</t>
+          <t>37,28; 73,99</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>34,08; 86,96</t>
+          <t>33,86; 88,13</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>19,96; 39,27</t>
+          <t>19,14; 38,24</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>43,92; 67,32</t>
+          <t>44,28; 66,23</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>21,17; 57,0</t>
+          <t>22,94; 55,89</t>
         </is>
       </c>
     </row>
